--- a/results/pvalue_SIDER_rare_indication_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_indication_AUPR+AUROCperdrug.xlsx
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.022</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23.695</t>
+          <t>11.164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21.933</t>
+          <t>10.848</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.924</t>
+          <t>5.034</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.255</t>
+          <t>7.257</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.084</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>9.787</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.392</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.607</t>
+          <t>3.631</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.133</t>
+          <t>5.148</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-5.574</t>
+          <t>-2.291</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
